--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/CITIC_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/CITIC_C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Entrust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Entrust\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="当日委托--中信信用" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>证券代码</t>
   </si>
@@ -60,15 +60,9 @@
     <t>委托类型</t>
   </si>
   <si>
-    <t>成交金额</t>
-  </si>
-  <si>
     <t>已撤数量</t>
   </si>
   <si>
-    <t>业务名称</t>
-  </si>
-  <si>
     <t>资金帐号</t>
   </si>
   <si>
@@ -78,25 +72,10 @@
     <t>返回信息</t>
   </si>
   <si>
-    <t>西部证券</t>
-  </si>
-  <si>
-    <t>买入</t>
-  </si>
-  <si>
     <t>深圳</t>
   </si>
   <si>
-    <t>担保品买入</t>
-  </si>
-  <si>
     <t>已成</t>
-  </si>
-  <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>担保品卖出</t>
   </si>
   <si>
     <t>交易类别</t>
@@ -105,6 +84,18 @@
   <si>
     <t>日内</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托类别</t>
+  </si>
+  <si>
+    <t>万顺股份</t>
+  </si>
+  <si>
+    <t>证券买入</t>
+  </si>
+  <si>
+    <t>委托</t>
   </si>
   <si>
     <t>波段</t>
@@ -1058,251 +1049,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>0.46468749999999998</v>
+      </c>
+      <c r="B2">
+        <v>11388</v>
+      </c>
+      <c r="C2">
+        <v>300057</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>10.47</v>
+      </c>
+      <c r="I2">
+        <v>5900</v>
+      </c>
+      <c r="J2">
+        <v>10.47</v>
+      </c>
+      <c r="K2">
+        <v>5900</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>200385647</v>
+      </c>
+      <c r="N2">
+        <v>21800007522</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Q2">
+        <v>11388</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>0.46550925925925929</v>
+      </c>
+      <c r="B3">
+        <v>11452</v>
+      </c>
+      <c r="C3">
+        <v>300057</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="H3">
+        <v>10.47</v>
+      </c>
+      <c r="I3">
+        <v>4300</v>
+      </c>
+      <c r="J3">
+        <v>10.47</v>
+      </c>
+      <c r="K3">
+        <v>4300</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>200385647</v>
+      </c>
+      <c r="N3">
+        <v>21800007522</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <v>11452</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>0.46625</v>
+      </c>
+      <c r="B4">
+        <v>11532</v>
+      </c>
+      <c r="C4">
+        <v>300057</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>10.47</v>
+      </c>
+      <c r="I4">
+        <v>3900</v>
+      </c>
+      <c r="J4">
+        <v>10.47</v>
+      </c>
+      <c r="K4">
+        <v>3900</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>200385647</v>
+      </c>
+      <c r="N4">
+        <v>21800007522</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>11532</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2673</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>26.62</v>
-      </c>
-      <c r="E2">
-        <v>45300</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.41347222222222224</v>
-      </c>
-      <c r="G2">
-        <v>45300</v>
-      </c>
-      <c r="H2">
-        <v>26.6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>604222542</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1204980</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2">
-        <v>8009144847</v>
-      </c>
-      <c r="R2">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2673</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>26.73</v>
-      </c>
-      <c r="E3">
-        <v>45300</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.41410879629629632</v>
-      </c>
-      <c r="G3">
-        <v>45300</v>
-      </c>
-      <c r="H3">
-        <v>26.73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>604222542</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>1210869</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3">
-        <v>8009144847</v>
-      </c>
-      <c r="R3">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2673</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>26.74</v>
-      </c>
-      <c r="E4">
-        <v>45300</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.41418981481481482</v>
-      </c>
-      <c r="G4">
-        <v>45300</v>
-      </c>
-      <c r="H4">
-        <v>26.74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>604222542</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1211322</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4">
-        <v>8009144847</v>
-      </c>
-      <c r="R4">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
